--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD147EC-648F-44D7-A8B1-B5712BD4FC8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC31BE-A17B-44C5-8390-097CC661CB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="5880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +107,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Image=1,Check,Safe}</t>
+    <t>enum {Image=1,Check,Safe}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Args</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct{string Name; int Template; enum{X,Y,Z} Location}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +466,11 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -463,7 +478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -476,13 +491,16 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -495,8 +513,11 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -507,7 +528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1200001</v>
       </c>
@@ -521,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1200002</v>
       </c>

--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC31BE-A17B-44C5-8390-097CC661CB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4C983-52E2-4846-9406-79D576D849AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,26 @@
   </si>
   <si>
     <t>struct{string Name; int Template; enum{X,Y,Z} Location}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoreInfo.ItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoreInfo.Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -478,7 +498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -494,13 +514,28 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,8 +551,17 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -528,7 +572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1200001</v>
       </c>
@@ -542,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1200002</v>
       </c>

--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4C983-52E2-4846-9406-79D576D849AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E43D0F7-4387-4379-B410-AFEA2B4C7DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E43D0F7-4387-4379-B410-AFEA2B4C7DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43DEE7-ECE5-47CE-BC76-7793E5FAAFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp.Lazy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +481,7 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -502,7 +506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -527,8 +531,11 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -539,7 +546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -564,8 +571,11 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -575,8 +585,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1200001</v>
       </c>
@@ -590,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1200002</v>
       </c>

--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43DEE7-ECE5-47CE-BC76-7793E5FAAFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A226F-8C67-49C0-9A1F-BA89C7D83CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>Exp.Lazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否延迟执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoreInfo</t>
+  </si>
+  <si>
+    <t>ActionItem</t>
+  </si>
+  <si>
+    <t>额外成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#import</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,148 +495,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" t="b">
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1200001</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1200002</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Test/Input/Action.xlsx
+++ b/Test/Input/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A226F-8C67-49C0-9A1F-BA89C7D83CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567B19B-7091-4A55-A02E-5D9BCBFD72BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,7 +161,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#import</t>
+    <t>#def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +502,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,6 +530,9 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
